--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2663.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2663.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.7253347509199232</v>
+        <v>1.602602124214172</v>
       </c>
       <c r="B1">
-        <v>1.080082188480026</v>
+        <v>1.636018633842468</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>1.592564344406128</v>
       </c>
       <c r="D1">
-        <v>-1</v>
+        <v>1.917804360389709</v>
       </c>
       <c r="E1">
-        <v>1.028748305213558</v>
+        <v>2.735721588134766</v>
       </c>
     </row>
   </sheetData>
